--- a/src/test/java/testData/TestCases.xlsx
+++ b/src/test/java/testData/TestCases.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ExecutionDriver" sheetId="2" r:id="rId1"/>
     <sheet name="TestCases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,9 +40,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>To check whether user is able to delete an existing customer.</t>
-  </si>
-  <si>
     <t>TC_1</t>
   </si>
   <si>
@@ -140,14 +137,16 @@
   </si>
   <si>
     <t>All departure and destination objects</t>
+  </si>
+  <si>
+    <t>To check that the user is able to fill in details for "Where you want to go" form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,31 +551,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B12" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.1796875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="59.81640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="14.08984375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="42.90625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -590,93 +589,93 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="2"/>
@@ -688,29 +687,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="10.08984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="12" width="20.90625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="30.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.7265625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="6" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="12.90625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="27.08984375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.90625" collapsed="true"/>
-    <col min="11" max="12" style="1" width="8.7265625" collapsed="false"/>
-    <col min="13" max="16384" style="1" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="10.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -718,28 +717,28 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -750,12 +749,12 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -766,12 +765,12 @@
       <c r="I3" s="7"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -782,12 +781,12 @@
       <c r="I4" s="7"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -798,12 +797,12 @@
       <c r="I5" s="7"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -814,12 +813,12 @@
       <c r="I6" s="7"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -830,12 +829,12 @@
       <c r="I7" s="7"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -846,12 +845,12 @@
       <c r="I8" s="7"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -862,36 +861,36 @@
       <c r="I9" s="2"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
